--- a/RestfulAPITest/Http_Request_workbook_Data.xlsx
+++ b/RestfulAPITest/Http_Request_workbook_Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Comparison" r:id="rId10" sheetId="4"/>
     <sheet name="Result" r:id="rId11" sheetId="5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,18 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.douban.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v2/book/1220562</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,11 +81,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>application/json;charset=UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://statis-t3.b2bsettle.caiwu.corp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","merchId":"portal","keyInfo":"3379870e2ca044e98bc56c4a74931aa9","eIdList":[{"eId":"30000021","eId":"30000042","eId":"30000043"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/enterprises/balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>{"balanceList":[{"balance":"334257.43","eId":"30000041","currency":"CNY","eName":"浦发2"}],"retCode":"2","sendTime":"20160317441539048","retMessage":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Test function A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanceList[balance=334257.43].eId
+Expected: 30000041
+     got: 30000043
+ ; balanceList[balance=334257.43].eName
+Expected: 浦发2
+     got: 浦发234
+ ; retCode
+Expected: 2
+     got: 1
+</t>
   </si>
   <si>
     <t>Test function B</t>
@@ -107,133 +143,204 @@
     <t>2</t>
   </si>
   <si>
-    <t>application/json;charset=UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json;charset=UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/html,application/xhtml+xml,application/xml;q=0.9,*/*;q=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":14,"average":"7.3","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":24,"name":"Java","title":"Java"},{"count":12,"name":"Java8","title":"Java8"},{"count":11,"name":"lambda","title":"lambda"},{"count":4,"name":"计算机","title":"计算机"},{"count":4,"name":"英文版","title":"英文版"},{"count":3,"name":"编程语言","title":"编程语言"},{"count":3,"name":"程序设计","title":"程序设计"},{"count":3,"name":"FP","title":"FP"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http:\/\/img3.douban.com\/spic\/s27245543.jpg","large":"http:\/\/img3.douban.com\/lpic\/s27245543.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s27245543.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":10,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http:\/\/img3.douban.com\/spic\/s27241342.jpg","large":"http:\/\/img3.douban.com\/lpic\/s27241342.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s27241342.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v2/book/search?q=java8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test function A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog
-Expected: 
-     got: 
- ; 
-Expected: rating1
-     but none found
- ; 
-Unexpected: rating
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"rating":{"max":10,"numRaters":344,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":133,"name":"片山恭一","title":"片山恭一"},{"count":62,"name":"日本","title":"日本"},{"count":60,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n ","pages":"180","images":{"small":"http:\/\/img3.douban.com\/spic\/s1747553.jpg","large":"http:\/\/img3.douban.com\/lpic\/s1747553.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg"},"alt":"http:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog
-Expected: 
-     got: 
-</t>
-  </si>
-  <si>
-    <t>comparsionDetail</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>{"rating":{"max":10,"numRaters":344,"average":"7.0","min":0},"subtitle":"","author":["[日] 片山恭一"],"pubdate":"2005-1","tags":[{"count":133,"name":"片山恭一","title":"片山恭一"},{"count":62,"name":"日本","title":"日本"},{"count":60,"name":"日本文学","title":"日本文学"},{"count":38,"name":"小说","title":"小说"},{"count":32,"name":"满月之夜白鲸现","title":"满月之夜白鲸现"},{"count":15,"name":"爱情","title":"爱情"},{"count":8,"name":"純愛","title":"純愛"},{"count":8,"name":"外国文学","title":"外国文学"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg","binding":"平装","translator":["豫人"],"catalog":"\n      ","pages":"180","images":{"small":"http:\/\/img3.douban.com\/spic\/s1747553.jpg","large":"http:\/\/img3.douban.com\/lpic\/s1747553.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s1747553.jpg"},"alt":"http:\/\/book.douban.com\/subject\/1220562\/","id":"1220562","publisher":"青岛出版社","isbn10":"7543632608","isbn13":"9787543632608","title":"满月之夜白鲸现","url":"http:\/\/api.douban.com\/v2\/book\/1220562","alt_title":"","author_intro":"","summary":"那一年，是听莫扎特、钓鲈鱼和家庭破裂的一年。说到家庭破裂，母亲怪自己当初没有找到好男人，父亲则认为当时是被狐狸精迷住了眼，失常的是母亲，但出问题的是父亲……。","price":"15.00元"}</t>
+    <t>{"sendTime":"20160317441539048","balanceList":[{"currency":"CNY","eName":"浦发234","balance":"334257.43","eId":"30000043"}],"retCode":"1","retMessage":""}</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>{"count":2,"start":0,"total":2,"books":[{"rating":{"max":10,"numRaters":14,"average":"7.3","min":0},"subtitle":"Pragmatic Functional Programming","author":["Richard Warburton"],"pubdate":"2014-4-7","tags":[{"count":24,"name":"Java","title":"Java"},{"count":12,"name":"Java8","title":"Java8"},{"count":11,"name":"lambda","title":"lambda"},{"count":4,"name":"计算机","title":"计算机"},{"count":4,"name":"英文版","title":"英文版"},{"count":3,"name":"编程语言","title":"编程语言"},{"count":3,"name":"程序设计","title":"程序设计"},{"count":3,"name":"FP","title":"FP"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s27245543.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"182","images":{"small":"http:\/\/img3.douban.com\/spic\/s27245543.jpg","large":"http:\/\/img3.douban.com\/lpic\/s27245543.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s27245543.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25801524\/","id":"25801524","publisher":"O'Reilly Media","isbn10":"1449370772","isbn13":"9781449370770","title":"Java 8 Lambdas","url":"http:\/\/api.douban.com\/v2\/book\/25801524","alt_title":"","author_intro":"Richard is an empirical technologist and solver of deep-dive technical problems. He has professionally worked on static analysis problems, verifying part of a compiler and developing advanced automated bug detection technology. More recently his career has been focussed on data analytics for high performance computing. He is a leader in the London Java Community, sits on their JCP Committee and organises the Adopt-a-JSR programs for Lambdas and Date and Time in Java 8. Richard is also a known conference speaker, having talked at JavaOne, DevoxxUK and JAX London. He obtained a PhD in Computer Science from The University of Warwick where his research focussed on compiler theory.","summary":"If you're an experienced Java programmer, Java 8 Lambdas shows you how to make use of your existing skills to adapt their thinking and your codebase to use lambda expressions properly. Starting with basic examples, this book is focused solely on Java 8 language changes and related API changes, so you don’t need to buy and read a 900 page book in order to brush up. Lambdas make a programmer's job easier, and this book will teach you how. Coverage includes introductory syntax for lambda expressions, method references that allow you to reuse existing named methods from your codebase, and the collection library in Java 8.","price":"USD 29.99"},{"rating":{"max":10,"numRaters":3,"average":"0.0","min":0},"subtitle":"Harnessing the Power Of Java 8 Lambda Expressions","author":["Venkat Subramaniam"],"pubdate":"2014-3-1","tags":[{"count":10,"name":"Java","title":"Java"},{"count":4,"name":"lambda","title":"lambda"},{"count":2,"name":"Functional","title":"Functional"},{"count":2,"name":"Java8","title":"Java8"},{"count":1,"name":"pragmatic","title":"pragmatic"},{"count":1,"name":"programming","title":"programming"},{"count":1,"name":"有电子版","title":"有电子版"}],"origin_title":"","image":"http:\/\/img3.douban.com\/mpic\/s27241342.jpg","binding":"Paperback","translator":[],"catalog":"","pages":"160","images":{"small":"http:\/\/img3.douban.com\/spic\/s27241342.jpg","large":"http:\/\/img3.douban.com\/lpic\/s27241342.jpg","medium":"http:\/\/img3.douban.com\/mpic\/s27241342.jpg"},"alt":"http:\/\/book.douban.com\/subject\/25830739\/","id":"25830739","publisher":"Pragmatic Bookshelf","isbn10":"1937785467","isbn13":"9781937785468","title":"Functional Programming in Java","url":"http:\/\/api.douban.com\/v2\/book\/25830739","alt_title":"","author_intro":"","summary":"","price":"USD 33.00"}]}</t>
-  </si>
-  <si>
     <t>Test function B</t>
   </si>
   <si>
+    <t>{"sendTime":"20160317441539048","balanceList":[{"balance":"334257.43","eId":"30000043","eName":"浦发234","currency":"CNY"}],"retMessage":"","retCode":"1"}</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2016-05-25 17:40:55</t>
+  </si>
+  <si>
+    <t>2016-05-25 17:40:56</t>
+  </si>
+  <si>
+    <t>Test function C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{    "sendTime": "20160317441539048",    "merchId": "portal",    "keyInfo": "3379870e2ca044e98bc56c4a74931aa9",    "eIdList": [        {            "eId": "30000043"        }    ]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"retMessage":"","retCode":"1","sendTime":"20160317441539048","balanceList":[{"balance":"334257.43","currency":"CNY","eId":"30000043","eName":"浦发234"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","retCode":"1","balanceList":[{"balance":"334257.43","currency":"CNY","eName":"浦发234","eId":"30000043"}],"sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2015-09-17 10:48:24</t>
-  </si>
-  <si>
-    <t>2015-09-17 10:48:28</t>
-  </si>
-  <si>
-    <t>2015-09-17 11:38:23</t>
-  </si>
-  <si>
-    <t>2015-09-17 11:38:25</t>
-  </si>
-  <si>
-    <t>2015-09-17 12:52:49</t>
-  </si>
-  <si>
-    <t>2015-09-17 12:52:51</t>
-  </si>
-  <si>
-    <t>2015-09-17 13:52:49</t>
-  </si>
-  <si>
-    <t>2015-09-17 13:52:58</t>
-  </si>
-  <si>
-    <t>2015-09-17 13:52:59</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2015-09-17 14:05:54</t>
-  </si>
-  <si>
-    <t>2015-09-17 14:05:58</t>
-  </si>
-  <si>
-    <t>2015-09-17 14:05:59</t>
-  </si>
-  <si>
-    <t>2015-09-17 14:06:00</t>
+    <t>{"retMessage":"","sendTime":"20160317441539048","retCode":"1","balanceList":[{"currency":"CNY","eName":"浦发234","balance":"334257.43","eId":"30000043"}]}</t>
+  </si>
+  <si>
+    <t>Test function C</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","sendTime":"20160317441539048","balanceList":[{"eName":"浦发234","currency":"CNY","eId":"30000043","balance":"334257.43"}],"retCode":"1"}</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2016-05-25 17:53:24</t>
+  </si>
+  <si>
+    <t>2016-05-25 17:53:25</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","retCode":"1","balanceList":[{"balance":"334257.43","eId":"30000043","eName":"浦发234","currency":"CNY"}],"sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","balanceList":[{"eName":"浦发234","eId":"30000043","balance":"334257.43","currency":"CNY"}],"retCode":"1","sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","sendTime":"20160317441539048","balanceList":[{"eName":"浦发234","eId":"30000043","balance":"334257.43","currency":"CNY"}],"retCode":"1"}</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:35:20</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:35:22</t>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","retMessage":"","balanceList":[{"eId":"30000043","balance":"334257.43","currency":"CNY","eName":"浦发234"}],"retCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","retCode":"1","sendTime":"20160317441539048","balanceList":[{"balance":"334257.43","eId":"30000043","currency":"CNY","eName":"浦发234"}]}</t>
+  </si>
+  <si>
+    <t>{"balanceList":[{"balance":"334257.43","eName":"浦发234","eId":"30000043","currency":"CNY"}],"sendTime":"20160317441539048","retCode":"1","retMessage":""}</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:41:07</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:41:08</t>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","retMessage":"","balanceList":[{"currency":"CNY","eId":"30000043","balance":"334257.43","eName":"浦发234"}],"retCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","retMessage":"","balanceList":[{"currency":"CNY","eName":"浦发234","balance":"334257.43","eId":"30000043"}],"retCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","retMessage":"","retCode":"1","balanceList":[{"balance":"334257.43","eName":"浦发234","eId":"30000043","currency":"CNY"}]}</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:43:21</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:43:23</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","balanceList":[{"currency":"CNY","eName":"浦发234","balance":"334257.43","eId":"30000043"}],"retMessage":"","sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","balanceList":[{"eName":"浦发234","currency":"CNY","eId":"30000043","balance":"334257.43"}],"retCode":"1","sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","retMessage":"","sendTime":"20160317441539048","balanceList":[{"balance":"334257.43","eId":"30000043","eName":"浦发234","currency":"CNY"}]}</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:46:19</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:46:21</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","retMessage":"","sendTime":"20160317441539048","balanceList":[{"eId":"30000043","balance":"334257.43","eName":"浦发234","currency":"CNY"}]}</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","sendTime":"20160317441539048","balanceList":[{"currency":"CNY","eId":"30000043","eName":"浦发234","balance":"334257.43"}],"retMessage":""}</t>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","retCode":"1","retMessage":"","balanceList":[{"currency":"CNY","eName":"浦发234","eId":"30000043","balance":"334257.43"}]}</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:50:26</t>
+  </si>
+  <si>
+    <t>2016-05-25 18:50:28</t>
+  </si>
+  <si>
+    <t>{"sendTime":"20160317441539048","retCode":"1","retMessage":"","balanceList":[{"currency":"CNY","eName":"浦发234","balance":"334257.43","eId":"30000043"}]}</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","sendTime":"20160317441539048","balanceList":[{"currency":"CNY","eName":"浦发234","eId":"30000043","balance":"334257.43"}],"retCode":"1"}</t>
+  </si>
+  <si>
+    <t>2016-05-25 19:02:19</t>
+  </si>
+  <si>
+    <t>2016-05-25 19:02:21</t>
+  </si>
+  <si>
+    <t>{"balanceList":[{"eId":"30000043","balance":"334257.43","eName":"浦发234","currency":"CNY"}],"retMessage":"","sendTime":"20160317441539048","retCode":"1"}</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","sendTime":"20160317441539048","retMessage":"","balanceList":[{"eId":"30000043","balance":"334257.43","eName":"浦发234","currency":"CNY"}]}</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","sendTime":"20160317441539048","retMessage":"","balanceList":[{"currency":"CNY","eName":"浦发234","balance":"334257.43","eId":"30000043"}]}</t>
+  </si>
+  <si>
+    <t>用例总数: 3.0</t>
+  </si>
+  <si>
+    <t>失败的用例数: 2.0</t>
+  </si>
+  <si>
+    <t>开始时间: 2016-05-25 19:05:34</t>
+  </si>
+  <si>
+    <t>结束时间: 2016-05-25 19:05:35</t>
+  </si>
+  <si>
+    <t>{"retCode":"1","retMessage":"","balanceList":[{"balance":"334257.43","eId":"30000043","currency":"CNY","eName":"浦发234"}],"sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
+    <t>{"retMessage":"","balanceList":[{"currency":"CNY","eId":"30000043","balance":"334257.43","eName":"浦发234"}],"retCode":"1","sendTime":"20160317441539048"}</t>
+  </si>
+  <si>
+    <t>{"balanceList":[{"eId":"30000043","currency":"CNY","balance":"334257.43","eName":"浦发234"}],"sendTime":"20160317441539048","retMessage":"","retCode":"1"}</t>
+  </si>
+  <si>
+    <t>开始时间: 2016-05-25 19:12:05</t>
+  </si>
+  <si>
+    <t>结束时间: 2016-05-25 19:12:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,13 +356,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,17 +402,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -605,26 +775,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="38.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="1" max="1" style="2" width="11.19921875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.69921875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.19921875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.69921875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.69921875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="48.296875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.69921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -656,53 +827,90 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -713,49 +921,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
+    <col min="1" max="1" style="3" width="11.19921875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -779,24 +1000,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="27">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="29">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +1054,41 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -824,29 +1101,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
